--- a/reward matrices.xlsx
+++ b/reward matrices.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polinavanyukov/Google Drive/skinner/projects_analyses/Project Trust/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polinavanyukov/Box Sync/Project Trust Game/scripts/trust_rl_VBA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="23380" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="216" zoomScaleNormal="216" zoomScalePageLayoutView="216" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="216" zoomScaleNormal="216" zoomScalePageLayoutView="216" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
